--- a/results/qualitative-results-structure.xlsx
+++ b/results/qualitative-results-structure.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Documents\GitHub\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF23E6-BB5A-44CF-9924-6007A5588079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF7B602-9AB8-41A0-9B05-3212AA5C75A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - FPS" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2 - FNS" sheetId="2" r:id="rId2"/>
     <sheet name="Table 3 - TPS" sheetId="3" r:id="rId3"/>
     <sheet name="Table 4 - Exact vs Inexact" sheetId="4" r:id="rId4"/>
+    <sheet name="Table 5 - EN vs EN L flair" sheetId="5" r:id="rId5"/>
+    <sheet name="Table 7 - Dutch vs. EN L flair" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="203">
   <si>
     <t>Zwolle</t>
   </si>
@@ -421,13 +423,229 @@
   </si>
   <si>
     <t>Exact vs Inexact</t>
+  </si>
+  <si>
+    <t>Heuvellanddorpen</t>
+  </si>
+  <si>
+    <t>Horapark</t>
+  </si>
+  <si>
+    <t>Hoeksche Waard</t>
+  </si>
+  <si>
+    <t>Aquabest</t>
+  </si>
+  <si>
+    <t>Gulbergen</t>
+  </si>
+  <si>
+    <t>IJsselvliedt</t>
+  </si>
+  <si>
+    <t>Oeverlanden</t>
+  </si>
+  <si>
+    <t>Horst</t>
+  </si>
+  <si>
+    <t>IJmuiden</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Pekela's</t>
+  </si>
+  <si>
+    <t>Brink</t>
+  </si>
+  <si>
+    <t>Hamrik</t>
+  </si>
+  <si>
+    <t>Den Haag</t>
+  </si>
+  <si>
+    <t>Sallandse Heuvelrug</t>
+  </si>
+  <si>
+    <t>Oldambt</t>
+  </si>
+  <si>
+    <t>Wijk bij Duurstede</t>
+  </si>
+  <si>
+    <t>Opsterland</t>
+  </si>
+  <si>
+    <t>Zee</t>
+  </si>
+  <si>
+    <t>Bladel</t>
+  </si>
+  <si>
+    <t>Rijksweg</t>
+  </si>
+  <si>
+    <t>Nieuweschans</t>
+  </si>
+  <si>
+    <t>Zwolle-Almelo</t>
+  </si>
+  <si>
+    <t>Provincie Noord-Holland</t>
+  </si>
+  <si>
+    <t>Oude</t>
+  </si>
+  <si>
+    <t>Kromme Rijn</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Hanzestad</t>
+  </si>
+  <si>
+    <t>gemeente Opsterland</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>spaCy CNN Dutch</t>
+  </si>
+  <si>
+    <t>Flair XLM-R English</t>
+  </si>
+  <si>
+    <t>True positives</t>
+  </si>
+  <si>
+    <t>False positives</t>
+  </si>
+  <si>
+    <t>Flair English</t>
+  </si>
+  <si>
+    <t>Dublin Community Recreation Center</t>
+  </si>
+  <si>
+    <t>Islamic State</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>United Russia</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>Ronald Reagan Building</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>GTA</t>
+  </si>
+  <si>
+    <t>St. Clair</t>
+  </si>
+  <si>
+    <t>Middlesex-London</t>
+  </si>
+  <si>
+    <t>WBKO</t>
+  </si>
+  <si>
+    <t>Minnie Howard</t>
+  </si>
+  <si>
+    <t>La Niña</t>
+  </si>
+  <si>
+    <t>Lombard</t>
+  </si>
+  <si>
+    <t>WKYT</t>
+  </si>
+  <si>
+    <t>Viridian</t>
+  </si>
+  <si>
+    <t>TORRINGTON</t>
+  </si>
+  <si>
+    <t>Bains and Grants Town</t>
+  </si>
+  <si>
+    <t>Harwinton</t>
+  </si>
+  <si>
+    <t>Roselle</t>
+  </si>
+  <si>
+    <t>Lovejoy</t>
+  </si>
+  <si>
+    <t>Abkhaz</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Stade de France</t>
+  </si>
+  <si>
+    <t>DPRK</t>
+  </si>
+  <si>
+    <t>University Hospital</t>
+  </si>
+  <si>
+    <t>BANTAM</t>
+  </si>
+  <si>
+    <t>Mahnomen County Road</t>
+  </si>
+  <si>
+    <t>West Side</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>Avondale Estates</t>
+  </si>
+  <si>
+    <t>Winsted</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>Port of Los Angeles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +681,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -484,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -503,15 +728,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -520,9 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -535,6 +748,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,40 +1082,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="18"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -883,31 +1126,31 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>601</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>135</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <v>519</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <v>264</v>
       </c>
       <c r="N3" s="3"/>
@@ -920,31 +1163,31 @@
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>92</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>56</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>176</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <v>115</v>
       </c>
       <c r="N4" s="3"/>
@@ -957,31 +1200,31 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>77</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>42</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <v>135</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="10">
         <v>115</v>
       </c>
       <c r="N5" s="3"/>
@@ -994,31 +1237,31 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>75</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>38</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>118</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <v>54</v>
       </c>
       <c r="N6" s="3"/>
@@ -1031,31 +1274,31 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>67</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>37</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>88</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <v>53</v>
       </c>
       <c r="N7" s="3"/>
@@ -1068,31 +1311,31 @@
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>63</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>34</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <v>67</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="10">
         <v>38</v>
       </c>
       <c r="N8" s="3"/>
@@ -1105,31 +1348,31 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>56</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>27</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="10">
         <v>64</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="10">
         <v>29</v>
       </c>
       <c r="N9" s="3"/>
@@ -1142,31 +1385,31 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>53</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>25</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>63</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <v>24</v>
       </c>
       <c r="N10" s="3"/>
@@ -1179,31 +1422,31 @@
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>43</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>19</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="10">
         <v>59</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="12" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="10">
         <v>24</v>
       </c>
       <c r="N11" s="3"/>
@@ -1216,36 +1459,36 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>39</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>18</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>56</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="12" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1256,7 +1499,7 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1267,7 +1510,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1278,7 +1521,7 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1289,7 +1532,7 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1300,7 +1543,7 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1311,7 +1554,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1322,7 +1565,7 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1333,7 +1576,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1344,7 +1587,7 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1381,54 +1624,54 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="18"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1445,21 +1688,21 @@
       <c r="B3" s="3">
         <v>141</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="3">
         <v>199</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="3">
         <v>452</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="4" t="s">
         <v>42</v>
       </c>
@@ -1482,21 +1725,21 @@
       <c r="B4" s="3">
         <v>85</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="3">
         <v>179</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="3">
         <v>365</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
@@ -1519,21 +1762,21 @@
       <c r="B5" s="3">
         <v>80</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>116</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="3">
         <v>351</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="4" t="s">
         <v>48</v>
       </c>
@@ -1556,21 +1799,21 @@
       <c r="B6" s="3">
         <v>70</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="3">
         <v>115</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="3">
         <v>342</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="4" t="s">
         <v>51</v>
       </c>
@@ -1593,21 +1836,21 @@
       <c r="B7" s="3">
         <v>67</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="3">
         <v>106</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="3">
         <v>279</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="4" t="s">
         <v>45</v>
       </c>
@@ -1630,21 +1873,21 @@
       <c r="B8" s="3">
         <v>48</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="3">
         <v>101</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H8" s="3">
         <v>260</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1667,21 +1910,21 @@
       <c r="B9" s="3">
         <v>48</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="3">
         <v>83</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="3">
         <v>238</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="4" t="s">
         <v>61</v>
       </c>
@@ -1704,21 +1947,21 @@
       <c r="B10" s="3">
         <v>48</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="3">
         <v>76</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="3">
         <v>230</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1741,21 +1984,21 @@
       <c r="B11" s="3">
         <v>48</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="3">
         <v>73</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="3">
         <v>219</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="4" t="s">
         <v>69</v>
       </c>
@@ -1778,21 +2021,21 @@
       <c r="B12" s="3">
         <v>47</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="3">
         <v>71</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H12" s="3">
         <v>196</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1801,14 +2044,14 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1911,7 +2154,7 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
@@ -1922,7 +2165,7 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -1933,7 +2176,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
@@ -1945,14 +2188,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="I3:I12"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="I3:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1983,40 +2226,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2025,21 +2268,21 @@
       <c r="B3" s="6">
         <v>546</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="6">
         <v>395</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H3" s="6">
         <v>447</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="4" t="s">
         <v>75</v>
       </c>
@@ -2054,21 +2297,21 @@
       <c r="B4" s="6">
         <v>385</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="6">
         <v>291</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H4" s="6">
         <v>432</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="4" t="s">
         <v>78</v>
       </c>
@@ -2083,21 +2326,21 @@
       <c r="B5" s="6">
         <v>375</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="6">
         <v>254</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="6">
         <v>365</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="4" t="s">
         <v>61</v>
       </c>
@@ -2112,21 +2355,21 @@
       <c r="B6" s="6">
         <v>369</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="6">
         <v>239</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H6" s="6">
         <v>357</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
@@ -2141,21 +2384,21 @@
       <c r="B7" s="6">
         <v>364</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="6">
         <v>218</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H7" s="6">
         <v>348</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="4" t="s">
         <v>79</v>
       </c>
@@ -2170,21 +2413,21 @@
       <c r="B8" s="6">
         <v>329</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="6">
         <v>203</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="6">
         <v>339</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="4" t="s">
         <v>82</v>
       </c>
@@ -2199,21 +2442,21 @@
       <c r="B9" s="6">
         <v>270</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="6">
         <v>178</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="6">
         <v>304</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="4" t="s">
         <v>85</v>
       </c>
@@ -2228,21 +2471,21 @@
       <c r="B10" s="6">
         <v>263</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="6">
         <v>172</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="6">
         <v>299</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="4" t="s">
         <v>87</v>
       </c>
@@ -2257,21 +2500,21 @@
       <c r="B11" s="6">
         <v>260</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="6">
         <v>160</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H11" s="6">
         <v>257</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="4" t="s">
         <v>89</v>
       </c>
@@ -2286,21 +2529,21 @@
       <c r="B12" s="6">
         <v>234</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="6">
         <v>153</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H12" s="6">
         <v>239</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="4" t="s">
         <v>92</v>
       </c>
@@ -2309,7 +2552,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
@@ -2320,7 +2563,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="6"/>
@@ -2331,7 +2574,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
@@ -2342,7 +2585,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="6"/>
@@ -2353,7 +2596,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
@@ -2364,7 +2607,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="6"/>
@@ -2375,7 +2618,7 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="6"/>
@@ -2386,7 +2629,7 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="6"/>
@@ -2397,7 +2640,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="6"/>
@@ -2408,7 +2651,7 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="6"/>
@@ -2420,14 +2663,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="I3:I12"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="I3:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2437,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347E89D4-47D9-4AF2-B97B-3D599EF3EBDB}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,40 +2701,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2500,21 +2743,21 @@
       <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="6">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H3" s="6">
         <v>16</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="4" t="s">
         <v>95</v>
       </c>
@@ -2529,21 +2772,21 @@
       <c r="B4" s="6">
         <v>4</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H4" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="4" t="s">
         <v>98</v>
       </c>
@@ -2558,21 +2801,21 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="6">
         <v>6</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2587,21 +2830,21 @@
       <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="6">
         <v>5</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="4" t="s">
         <v>105</v>
       </c>
@@ -2616,21 +2859,21 @@
       <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="4" t="s">
         <v>109</v>
       </c>
@@ -2645,21 +2888,21 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="4" t="s">
         <v>112</v>
       </c>
       <c r="H8" s="6">
         <v>4</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="4" t="s">
         <v>113</v>
       </c>
@@ -2674,21 +2917,21 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2703,21 +2946,21 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H10" s="6">
         <v>3</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="4" t="s">
         <v>121</v>
       </c>
@@ -2732,21 +2975,21 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="4" t="s">
         <v>124</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="4" t="s">
         <v>125</v>
       </c>
@@ -2761,21 +3004,21 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="4" t="s">
         <v>128</v>
       </c>
       <c r="H12" s="6">
         <v>3</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="4" t="s">
         <v>129</v>
       </c>
@@ -2784,7 +3027,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
@@ -2795,7 +3038,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="6"/>
@@ -2806,7 +3049,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
@@ -2817,7 +3060,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="6"/>
@@ -2828,7 +3071,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
@@ -2839,7 +3082,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="6"/>
@@ -2850,7 +3093,7 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="6"/>
@@ -2861,7 +3104,7 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="6"/>
@@ -2872,7 +3115,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="6"/>
@@ -2883,7 +3126,7 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="6"/>
@@ -2895,15 +3138,1340 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="I3:I12"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="I3:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FDE705-E965-42AD-8877-53B36146EB0A}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="20">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="20">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="20">
+        <v>3</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="20">
+        <v>11</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="20">
+        <v>11</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="20">
+        <v>11</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="20">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="20">
+        <v>8</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="20">
+        <v>2</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="20">
+        <v>5</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="20">
+        <v>5</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="20">
+        <v>4</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="20">
+        <v>4</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="20">
+        <v>3</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="F2:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8DECBA-EFDE-4BFE-98E4-1F3A05761CE0}">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="20">
+        <v>28</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="20">
+        <v>10</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="20">
+        <v>28</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="20">
+        <v>9</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="20">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="20">
+        <v>22</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="20">
+        <v>8</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" s="20">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="20">
+        <v>21</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="20">
+        <v>8</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="20">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="20">
+        <v>18</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="20">
+        <v>7</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="20">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="20">
+        <v>12</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="20">
+        <v>7</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="20">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="20">
+        <v>11</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="20">
+        <v>6</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="20">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="20">
+        <v>11</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="20">
+        <v>6</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="20">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="20">
+        <v>11</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="20">
+        <v>6</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="20">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="20">
+        <v>11</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="20">
+        <v>6</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="20">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="J3:J14"/>
+    <mergeCell ref="D3:D14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/qualitative-results-structure.xlsx
+++ b/results/qualitative-results-structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Documents\GitHub\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF7B602-9AB8-41A0-9B05-3212AA5C75A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEEE013-D808-4DF1-B537-23035DCA085F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - FPS" sheetId="1" r:id="rId1"/>
@@ -425,60 +425,18 @@
     <t>Exact vs Inexact</t>
   </si>
   <si>
-    <t>Heuvellanddorpen</t>
-  </si>
-  <si>
-    <t>Horapark</t>
-  </si>
-  <si>
-    <t>Hoeksche Waard</t>
-  </si>
-  <si>
-    <t>Aquabest</t>
-  </si>
-  <si>
-    <t>Gulbergen</t>
-  </si>
-  <si>
-    <t>IJsselvliedt</t>
-  </si>
-  <si>
-    <t>Oeverlanden</t>
-  </si>
-  <si>
     <t>Horst</t>
   </si>
   <si>
-    <t>IJmuiden</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>Pekela's</t>
-  </si>
-  <si>
     <t>Brink</t>
   </si>
   <si>
-    <t>Hamrik</t>
-  </si>
-  <si>
-    <t>Den Haag</t>
-  </si>
-  <si>
-    <t>Sallandse Heuvelrug</t>
-  </si>
-  <si>
     <t>Oldambt</t>
   </si>
   <si>
-    <t>Wijk bij Duurstede</t>
-  </si>
-  <si>
-    <t>Opsterland</t>
-  </si>
-  <si>
     <t>Zee</t>
   </si>
   <si>
@@ -494,15 +452,9 @@
     <t>Zwolle-Almelo</t>
   </si>
   <si>
-    <t>Provincie Noord-Holland</t>
-  </si>
-  <si>
     <t>Oude</t>
   </si>
   <si>
-    <t>Kromme Rijn</t>
-  </si>
-  <si>
     <t>Station</t>
   </si>
   <si>
@@ -639,6 +591,54 @@
   </si>
   <si>
     <t>Port of Los Angeles</t>
+  </si>
+  <si>
+    <t>gemeente Bladel</t>
+  </si>
+  <si>
+    <t>gemeente Gennep</t>
+  </si>
+  <si>
+    <t>gemeente Oldambt</t>
+  </si>
+  <si>
+    <t>gemeente Bergen</t>
+  </si>
+  <si>
+    <t>gemeente Westvoorne</t>
+  </si>
+  <si>
+    <t>Metropoolregio Amsterdam</t>
+  </si>
+  <si>
+    <t>gemeente Elburg</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>gemeente Zwolle</t>
+  </si>
+  <si>
+    <t>stad Almelo</t>
+  </si>
+  <si>
+    <t>Deventer</t>
+  </si>
+  <si>
+    <t>stad Gennep</t>
+  </si>
+  <si>
+    <t>Landschap Overijssel</t>
+  </si>
+  <si>
+    <t>gemeente Aa</t>
+  </si>
+  <si>
+    <t>gemeente Groningen</t>
+  </si>
+  <si>
+    <t>Aa en Hunze</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -749,6 +749,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,23 +773,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,40 +1085,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="22"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1132,21 +1135,21 @@
       <c r="B3" s="10">
         <v>601</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="10">
         <v>135</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="10">
         <v>519</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1169,21 +1172,21 @@
       <c r="B4" s="10">
         <v>92</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="10">
         <v>56</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="10">
         <v>176</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1206,21 +1209,21 @@
       <c r="B5" s="10">
         <v>77</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="10">
         <v>42</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="10">
         <v>135</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1243,21 +1246,21 @@
       <c r="B6" s="10">
         <v>75</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="10">
         <v>38</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="10">
         <v>118</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1280,21 +1283,21 @@
       <c r="B7" s="10">
         <v>67</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="10">
         <v>37</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="10">
         <v>88</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="9" t="s">
         <v>12</v>
       </c>
@@ -1317,21 +1320,21 @@
       <c r="B8" s="10">
         <v>63</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="10">
         <v>34</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="10">
         <v>67</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1354,21 +1357,21 @@
       <c r="B9" s="10">
         <v>56</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="10">
         <v>27</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="10">
         <v>64</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1391,21 +1394,21 @@
       <c r="B10" s="10">
         <v>53</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="10">
         <v>25</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="10">
         <v>63</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="9" t="s">
         <v>21</v>
       </c>
@@ -1428,21 +1431,21 @@
       <c r="B11" s="10">
         <v>43</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="10">
         <v>19</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="10">
         <v>59</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="9" t="s">
         <v>23</v>
       </c>
@@ -1465,21 +1468,21 @@
       <c r="B12" s="10">
         <v>39</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="10">
         <v>18</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="10">
         <v>56</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="9" t="s">
         <v>19</v>
       </c>
@@ -1638,40 +1641,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="22"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1688,21 +1691,21 @@
       <c r="B3" s="3">
         <v>141</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="3">
         <v>199</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="3">
         <v>452</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="4" t="s">
         <v>42</v>
       </c>
@@ -1725,21 +1728,21 @@
       <c r="B4" s="3">
         <v>85</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="3">
         <v>179</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="3">
         <v>365</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
@@ -1762,21 +1765,21 @@
       <c r="B5" s="3">
         <v>80</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>116</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="3">
         <v>351</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="4" t="s">
         <v>48</v>
       </c>
@@ -1799,21 +1802,21 @@
       <c r="B6" s="3">
         <v>70</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="3">
         <v>115</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="3">
         <v>342</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>51</v>
       </c>
@@ -1836,21 +1839,21 @@
       <c r="B7" s="3">
         <v>67</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="3">
         <v>106</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="3">
         <v>279</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="4" t="s">
         <v>45</v>
       </c>
@@ -1873,21 +1876,21 @@
       <c r="B8" s="3">
         <v>48</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="3">
         <v>101</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H8" s="3">
         <v>260</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1910,21 +1913,21 @@
       <c r="B9" s="3">
         <v>48</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="3">
         <v>83</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="3">
         <v>238</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="4" t="s">
         <v>61</v>
       </c>
@@ -1947,21 +1950,21 @@
       <c r="B10" s="3">
         <v>48</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="3">
         <v>76</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="3">
         <v>230</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1984,21 +1987,21 @@
       <c r="B11" s="3">
         <v>48</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="3">
         <v>73</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="3">
         <v>219</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="4" t="s">
         <v>69</v>
       </c>
@@ -2021,21 +2024,21 @@
       <c r="B12" s="3">
         <v>47</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="3">
         <v>71</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H12" s="3">
         <v>196</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="4" t="s">
         <v>73</v>
       </c>
@@ -2226,40 +2229,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2268,21 +2271,21 @@
       <c r="B3" s="6">
         <v>546</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="6">
         <v>395</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H3" s="6">
         <v>447</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="4" t="s">
         <v>75</v>
       </c>
@@ -2297,21 +2300,21 @@
       <c r="B4" s="6">
         <v>385</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="6">
         <v>291</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H4" s="6">
         <v>432</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="4" t="s">
         <v>78</v>
       </c>
@@ -2326,21 +2329,21 @@
       <c r="B5" s="6">
         <v>375</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="6">
         <v>254</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="6">
         <v>365</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="4" t="s">
         <v>61</v>
       </c>
@@ -2355,21 +2358,21 @@
       <c r="B6" s="6">
         <v>369</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="6">
         <v>239</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H6" s="6">
         <v>357</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
@@ -2384,21 +2387,21 @@
       <c r="B7" s="6">
         <v>364</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="6">
         <v>218</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H7" s="6">
         <v>348</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="4" t="s">
         <v>79</v>
       </c>
@@ -2413,21 +2416,21 @@
       <c r="B8" s="6">
         <v>329</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="6">
         <v>203</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="6">
         <v>339</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="4" t="s">
         <v>82</v>
       </c>
@@ -2442,21 +2445,21 @@
       <c r="B9" s="6">
         <v>270</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="6">
         <v>178</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="6">
         <v>304</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="4" t="s">
         <v>85</v>
       </c>
@@ -2471,21 +2474,21 @@
       <c r="B10" s="6">
         <v>263</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="6">
         <v>172</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="6">
         <v>299</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="4" t="s">
         <v>87</v>
       </c>
@@ -2500,21 +2503,21 @@
       <c r="B11" s="6">
         <v>260</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="6">
         <v>160</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H11" s="6">
         <v>257</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="4" t="s">
         <v>89</v>
       </c>
@@ -2529,21 +2532,21 @@
       <c r="B12" s="6">
         <v>234</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="6">
         <v>153</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H12" s="6">
         <v>239</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="4" t="s">
         <v>92</v>
       </c>
@@ -2701,40 +2704,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2743,21 +2746,21 @@
       <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="6">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H3" s="6">
         <v>16</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="4" t="s">
         <v>95</v>
       </c>
@@ -2772,21 +2775,21 @@
       <c r="B4" s="6">
         <v>4</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H4" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="4" t="s">
         <v>98</v>
       </c>
@@ -2801,21 +2804,21 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="6">
         <v>6</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2830,21 +2833,21 @@
       <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="4" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="6">
         <v>5</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>105</v>
       </c>
@@ -2859,21 +2862,21 @@
       <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="4" t="s">
         <v>109</v>
       </c>
@@ -2888,21 +2891,21 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="4" t="s">
         <v>112</v>
       </c>
       <c r="H8" s="6">
         <v>4</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="4" t="s">
         <v>113</v>
       </c>
@@ -2917,21 +2920,21 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="4" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="4" t="s">
         <v>117</v>
       </c>
@@ -2946,21 +2949,21 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H10" s="6">
         <v>3</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="4" t="s">
         <v>121</v>
       </c>
@@ -2975,21 +2978,21 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="4" t="s">
         <v>124</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="4" t="s">
         <v>125</v>
       </c>
@@ -3004,21 +3007,21 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="4" t="s">
         <v>128</v>
       </c>
       <c r="H12" s="6">
         <v>3</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="4" t="s">
         <v>129</v>
       </c>
@@ -3155,7 +3158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FDE705-E965-42AD-8877-53B36146EB0A}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K13"/>
     </sheetView>
   </sheetViews>
@@ -3177,483 +3180,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="17">
+        <v>4</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="17">
+        <v>4</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="17">
+        <v>44</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="17">
+        <v>3</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="17">
+        <v>11</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="17">
+        <v>11</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="17">
+        <v>11</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="17">
+        <v>8</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="17">
+        <v>5</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="17">
+        <v>5</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="17">
+        <v>4</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="17">
+        <v>4</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="20">
-        <v>4</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="20">
-        <v>4</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="20">
-        <v>44</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="s">
+      <c r="H13" s="17">
+        <v>3</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="K13" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="20">
-        <v>3</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="20">
-        <v>11</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="20">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="20">
-        <v>3</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="20">
-        <v>11</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="20">
-        <v>2</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="20">
-        <v>3</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="20">
-        <v>11</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="20">
-        <v>3</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="20">
-        <v>8</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="K8" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="20">
-        <v>2</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="20">
-        <v>5</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="K9" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="20">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="20">
-        <v>2</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="20">
-        <v>5</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="20">
-        <v>2</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="20">
-        <v>4</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="20">
-        <v>2</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="20">
-        <v>4</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="20">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="20">
-        <v>2</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="20">
-        <v>3</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="K13" s="20">
-        <v>2</v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="21"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I2:I13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -3661,6 +3659,11 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="F2:F13"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3668,794 +3671,540 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8DECBA-EFDE-4BFE-98E4-1F3A05761CE0}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A3:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="19" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="24">
+        <v>10</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="24">
+        <v>28</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="24">
+        <v>8</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="24">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="24">
+        <v>21</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="24">
+        <v>7</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="24">
+        <v>6</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="24">
+        <v>18</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="20">
-        <v>2</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="20">
-        <v>28</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="20">
-        <v>10</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="20">
+      <c r="I7" s="24">
         <v>6</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="19" t="s">
+      <c r="J7" s="22"/>
+      <c r="K7" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="24">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="24">
+        <v>12</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="24">
+        <v>5</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="24">
+        <v>4</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="24">
+        <v>11</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="24">
+        <v>5</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="24">
+        <v>4</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="F10" s="24">
+        <v>11</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="24">
+        <v>5</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="24">
+        <v>3</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="20">
-        <v>28</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="F11" s="24">
+        <v>11</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="24">
+        <v>4</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="24">
+        <v>3</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="24">
         <v>9</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="L6" s="20">
-        <v>6</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="20">
-        <v>22</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="20">
-        <v>8</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="20">
-        <v>6</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="20">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="20">
-        <v>21</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="20">
-        <v>8</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="L8" s="20">
-        <v>4</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="20">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="20">
-        <v>18</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="20">
-        <v>7</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="20">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="20">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="20">
-        <v>12</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="20">
-        <v>7</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="20">
-        <v>4</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="20">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="20">
-        <v>11</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="20">
-        <v>6</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="L11" s="20">
+      <c r="G12" s="22"/>
+      <c r="H12" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="24">
         <v>3</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="20">
-        <v>11</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="I12" s="20">
-        <v>6</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="J12" s="22"/>
+      <c r="K12" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" s="24">
         <v>3</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="20">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="20">
-        <v>11</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="20">
-        <v>6</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="L13" s="20">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="24">
         <v>3</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="20">
-        <v>1</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="24">
+        <v>9</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="24">
+        <v>3</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="20">
-        <v>11</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="20">
-        <v>6</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="L13" s="24">
         <v>3</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="24">
+        <v>3</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="24">
+        <v>9</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="24">
+        <v>3</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="24"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
